--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DU4"/>
+  <dimension ref="A1:DX4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -553,205 +553,214 @@
         <v>ecosystemImpacts/ecosystem_impacts_text/p4</v>
       </c>
       <c r="BF1" t="str">
-        <v>ecosystemImpacts/ecosystem_impacts_text/p5</v>
+        <v>ecosystemImpacts/ecosystem_impacts_text/p5a</v>
       </c>
       <c r="BG1" t="str">
+        <v>ecosystemImpacts/ecosystem_impacts_text/p5b</v>
+      </c>
+      <c r="BH1" t="str">
+        <v>ecosystemImpacts/ecosystem_impacts_text/video4_caption</v>
+      </c>
+      <c r="BI1" t="str">
         <v>ecosystemImpacts/ecosystem_impacts_text/p6</v>
       </c>
-      <c r="BH1" t="str">
+      <c r="BJ1" t="str">
         <v>ecosystemImpacts/ecosystem_impacts_text/p7</v>
       </c>
-      <c r="BI1" t="str">
+      <c r="BK1" t="str">
         <v>ecosystemImpacts/ecosystem_impacts_text/freshwater_species_title</v>
       </c>
-      <c r="BJ1" t="str">
+      <c r="BL1" t="str">
         <v>ecosystemImpacts/ecosystem_impacts_text/p8</v>
       </c>
-      <c r="BK1" t="str">
+      <c r="BM1" t="str">
         <v>ecosystemImpacts/ecosystem_impacts_text/p9</v>
       </c>
-      <c r="BL1" t="str">
+      <c r="BN1" t="str">
         <v>ecosystemImpacts/ecosystem_impacts_text/p10</v>
       </c>
-      <c r="BM1" t="str">
+      <c r="BO1" t="str">
         <v>ecosystemImpacts/ecosystem_impacts_text/caption_puglia</v>
       </c>
-      <c r="BN1" t="str">
+      <c r="BP1" t="str">
         <v>ecosystemImpacts/step-1</v>
       </c>
-      <c r="BO1" t="str">
+      <c r="BQ1" t="str">
         <v>ecosystemImpacts/step-2</v>
       </c>
-      <c r="BP1" t="str">
+      <c r="BR1" t="str">
         <v>ecosystemImpacts/step-3</v>
       </c>
-      <c r="BQ1" t="str">
+      <c r="BS1" t="str">
         <v>ecosystemImpacts/step-4</v>
       </c>
-      <c r="BR1" t="str">
+      <c r="BT1" t="str">
         <v>ecosystemImpacts/step-5</v>
       </c>
-      <c r="BS1" t="str">
+      <c r="BU1" t="str">
         <v>ecosystemImpacts/step-6</v>
       </c>
-      <c r="BT1" t="str">
+      <c r="BV1" t="str">
         <v>ecosystemImpacts/step-7</v>
       </c>
-      <c r="BU1" t="str">
+      <c r="BW1" t="str">
         <v>ecosystemImpacts/step-8</v>
       </c>
-      <c r="BV1" t="str">
+      <c r="BX1" t="str">
         <v>ecosystemImpacts/step-9</v>
       </c>
-      <c r="BW1" t="str">
+      <c r="BY1" t="str">
         <v>possibleFutures/possible_futures_text/section_title</v>
       </c>
-      <c r="BX1" t="str">
+      <c r="BZ1" t="str">
         <v>possibleFutures/possible_futures_text/p1</v>
       </c>
-      <c r="BY1" t="str">
+      <c r="CA1" t="str">
         <v>possibleFutures/possible_futures_text/p2</v>
       </c>
-      <c r="BZ1" t="str">
+      <c r="CB1" t="str">
         <v>possibleFutures/possible_futures_text/p3</v>
       </c>
-      <c r="CA1" t="str">
+      <c r="CC1" t="str">
         <v>possibleFutures/possible_futures_text/dam_removal</v>
       </c>
-      <c r="CB1" t="str">
+      <c r="CD1" t="str">
         <v>possibleFutures/possible_futures_text/p4</v>
       </c>
-      <c r="CC1" t="str">
+      <c r="CE1" t="str">
         <v>possibleFutures/possible_futures_text/p5</v>
       </c>
-      <c r="CD1" t="str">
+      <c r="CF1" t="str">
         <v>possibleFutures/possible_futures_text/p6</v>
       </c>
-      <c r="CE1" t="str">
+      <c r="CG1" t="str">
         <v>possibleFutures/possible_futures_text/p7</v>
       </c>
-      <c r="CF1" t="str">
+      <c r="CH1" t="str">
         <v>possibleFutures/possible_futures_text/restored_video_caption</v>
       </c>
-      <c r="CG1" t="str">
+      <c r="CI1" t="str">
         <v>possibleFutures/possible_futures_text/p8</v>
       </c>
-      <c r="CH1" t="str">
+      <c r="CJ1" t="str">
         <v>possibleFutures/possible_futures_text/p9</v>
       </c>
-      <c r="CI1" t="str">
+      <c r="CK1" t="str">
         <v>possibleFutures/possible_futures_text/p10</v>
       </c>
-      <c r="CJ1" t="str">
+      <c r="CL1" t="str">
         <v>possibleFutures/possible_futures_text/p11</v>
       </c>
-      <c r="CK1" t="str">
+      <c r="CM1" t="str">
         <v>possibleFutures/possible_futures_text/bank_protection_removal_caption</v>
       </c>
-      <c r="CL1" t="str">
+      <c r="CN1" t="str">
         <v>possibleFutures/step-1</v>
       </c>
-      <c r="CM1" t="str">
+      <c r="CO1" t="str">
         <v>possibleFutures/step-_2</v>
       </c>
-      <c r="CN1" t="str">
+      <c r="CP1" t="str">
         <v>possibleFutures/step-2</v>
       </c>
-      <c r="CO1" t="str">
+      <c r="CQ1" t="str">
         <v>possibleFutures/step-3</v>
       </c>
-      <c r="CP1" t="str">
+      <c r="CR1" t="str">
         <v>possibleFutures/step-4</v>
       </c>
-      <c r="CQ1" t="str">
+      <c r="CS1" t="str">
         <v>possibleFutures/step-5</v>
       </c>
-      <c r="CR1" t="str">
+      <c r="CT1" t="str">
         <v>possibleFutures/step-6</v>
       </c>
-      <c r="CS1" t="str">
+      <c r="CU1" t="str">
         <v>possibleFutures/step-7</v>
       </c>
-      <c r="CT1" t="str">
+      <c r="CV1" t="str">
         <v>glossary/title</v>
       </c>
-      <c r="CU1" t="str">
+      <c r="CW1" t="str">
         <v>glossary/dam_title</v>
       </c>
-      <c r="CV1" t="str">
+      <c r="CX1" t="str">
         <v>glossary/dam_definition</v>
       </c>
-      <c r="CW1" t="str">
+      <c r="CY1" t="str">
         <v>glossary/ramp_title</v>
       </c>
-      <c r="CX1" t="str">
+      <c r="CZ1" t="str">
         <v>glossary/ramp_definition</v>
       </c>
-      <c r="CY1" t="str">
+      <c r="DA1" t="str">
         <v>glossary/sluice_title</v>
       </c>
-      <c r="CZ1" t="str">
+      <c r="DB1" t="str">
         <v>glossary/sluice_definition</v>
       </c>
-      <c r="DA1" t="str">
+      <c r="DC1" t="str">
         <v>glossary/weir_title</v>
       </c>
-      <c r="DB1" t="str">
+      <c r="DD1" t="str">
         <v>glossary/weir_definition</v>
       </c>
-      <c r="DC1" t="str">
+      <c r="DE1" t="str">
         <v>glossary/culvert_title</v>
       </c>
-      <c r="DD1" t="str">
+      <c r="DF1" t="str">
         <v>glossary/culvert_definition</v>
       </c>
-      <c r="DE1" t="str">
+      <c r="DG1" t="str">
         <v>about/credits</v>
       </c>
-      <c r="DF1" t="str">
+      <c r="DH1" t="str">
         <v>about/financed_by_label</v>
       </c>
-      <c r="DG1" t="str">
+      <c r="DI1" t="str">
         <v>about/financed_by</v>
       </c>
-      <c r="DH1" t="str">
+      <c r="DJ1" t="str">
         <v>about/scientific_supervision_label</v>
       </c>
-      <c r="DI1" t="str">
+      <c r="DK1" t="str">
         <v>about/scientific_supervision</v>
       </c>
-      <c r="DJ1" t="str">
+      <c r="DL1" t="str">
         <v>about/science_communication_label</v>
       </c>
-      <c r="DK1" t="str">
+      <c r="DM1" t="str">
         <v>about/science_communication</v>
       </c>
-      <c r="DL1" t="str">
+      <c r="DN1" t="str">
         <v>about/content_label</v>
       </c>
-      <c r="DM1" t="str">
+      <c r="DO1" t="str">
         <v>about/content</v>
       </c>
-      <c r="DN1" t="str">
+      <c r="DP1" t="str">
         <v>about/dev_label</v>
       </c>
-      <c r="DO1" t="str">
+      <c r="DQ1" t="str">
         <v>about/dev</v>
       </c>
-      <c r="DP1" t="str">
+      <c r="DR1" t="str">
         <v>about/contacts</v>
       </c>
-      <c r="DQ1" t="str">
+      <c r="DS1" t="str">
         <v>about/cirf</v>
       </c>
-      <c r="DR1" t="str">
+      <c r="DT1" t="str">
         <v>about/wetlands</v>
       </c>
-      <c r="DS1" t="str">
+      <c r="DU1" t="str">
         <v>about/data_sources</v>
       </c>
-      <c r="DT1" t="str">
+      <c r="DV1" t="str">
         <v>hovercard/barriers</v>
+      </c>
+      <c r="DW1" t="str">
+        <v>colophon</v>
       </c>
     </row>
     <row r="2">
@@ -927,210 +936,219 @@
         <v>Fish get caught in dam turbines as they move downstream, or get stuck and disoriented as they move upstream and in reservoirs. In short, the negative impact of river fragmentation on the survival of fish species is great, and has been &lt;a href="https://onlinelibrary.wiley.com/doi/full/10.1002/rra.3386" target="_blank"&gt;documented and quantified&lt;/a&gt;.</v>
       </c>
       <c r="BF2" t="str">
-        <v xml:space="preserve"> Barriers also transform the physical and chemical characteristics of rivers and negatively impact a wide range of freshwater species. Sediments of different sizes, especially the coarser ones, get trapped, leading to riverbed erosion. The latter, together with the altered water flows due to barriers, is linked to more salty water from the sea penetrating the river. Such change in salinity affects species’ distribution, behavior, and limits the reproduction rate.</v>
+        <v>Barriers also transform the physical and chemical characteristics of rivers and negatively impact a wide range of freshwater species. Sediments of different sizes, especially the coarser ones, get trapped, leading to riverbed erosion.</v>
       </c>
       <c r="BG2" t="str">
+        <v>The latter, together with the altered water flows due to barriers, is linked to more salty water from the sea penetrating the river. Such change in salinity affects species’ distribution, behavior, and limits the reproduction rate.</v>
+      </c>
+      <c r="BH2" t="str">
+        <v>credits: Francesco Comiti</v>
+      </c>
+      <c r="BI2" t="str">
         <v>Lateral barriers such as bank protection works have an impact on floodplain habitats and cause the loss of wetlands by preventing natural-occurring inundations and sediment redistribution and reducing the exchange with the groundwater.</v>
       </c>
-      <c r="BH2" t="str">
+      <c r="BJ2" t="str">
         <v>Migratory birds face growing challenges as they lose access to wetlands, which offer safe havens of food and habitat throughout their journeys. Critical nesting habitat such as gravel bed bars and islands can disappear due to altered river flows.</v>
       </c>
-      <c r="BI2" t="str">
+      <c r="BK2" t="str">
         <v>Freshwater Species</v>
       </c>
-      <c r="BJ2" t="str">
+      <c r="BL2" t="str">
         <v xml:space="preserve"> The trapping of sediments by barriers doesn’t only alter riparian habitats. Without obstacles sediments would eventually reach the coastal zone, preventing coastal erosion and the loss of river deltas. Areas rich in sediments are often also rich in biodiversity since they supplement the soil with nutrients. It is &lt;a href="https://www.forbes.com/sites/jeffopperman/2019/09/27/worlds-major-deltas-threatened-by-climate-change-and-also-by-how-we-develop-power-systems/?sh=c8de97a60e1f" target="_blank"&gt;estimated&lt;/a&gt; that the Nile river delta is losing 98% of its sediment supply because of upstream dams and reservoirs.</v>
       </c>
-      <c r="BK2" t="str">
+      <c r="BM2" t="str">
         <v xml:space="preserve"> Sediment trapping and downstream erosion threaten the lives and economic activities of the millions of people who belong to communities settled along river deltas and coasts.</v>
       </c>
-      <c r="BL2" t="str">
+      <c r="BN2" t="str">
         <v>Erosion makes these environments increasingly susceptible to heavy floods, a risk aggravated by rising sea levels.</v>
       </c>
-      <c r="BM2" t="str">
+      <c r="BO2" t="str">
         <v>Coastline of Puglia (Italy) near the Ofanto mouth in 1954 and in 2022 showing a maximum withdrawal of 600 m. (Volo IGMI GAI 1954 and Bing Maps.)</v>
       </c>
-      <c r="BN2" t="str">
+      <c r="BP2" t="str">
         <v>The International Union for Conservation of Nature (IUCN) assessed the status of freshwater species in Europe</v>
       </c>
-      <c r="BO2" t="str">
+      <c r="BQ2" t="str">
         <v>1% of them are &lt;ion-text highlight-color="danger-dark" class="font-bold"&gt;extinct, either globally or regionally&lt;/ion-text&gt;.</v>
       </c>
-      <c r="BP2" t="str">
+      <c r="BR2" t="str">
         <v>34% are &lt;ion-text highlight-color="danger" class="font-bold"&gt;critically endangered, endangered, near threatened, or vulnerable&lt;/ion-text&gt;.</v>
       </c>
-      <c r="BQ2" t="str">
+      <c r="BS2" t="str">
         <v>Only 55% are classified as &lt;ion-text highlight-color="least-concern" class="font-bold"&gt;low risk or least concern&lt;/ion-text&gt;.</v>
       </c>
-      <c r="BR2" t="str">
+      <c r="BT2" t="str">
         <v>And for 10% of them, there is &lt;ion-text highlight-color="no-data" class="font-bold"&gt;not enough data&lt;/ion-text&gt;.</v>
       </c>
-      <c r="BS2" t="str">
+      <c r="BU2" t="str">
         <v>Breaking down these overall numbers by type of European freshwater species</v>
       </c>
-      <c r="BT2" t="str">
+      <c r="BV2" t="str">
         <v>Many fish species are at risk</v>
       </c>
-      <c r="BU2" t="str">
+      <c r="BW2" t="str">
         <v>38% of freshwater fish species are classified either as extinct, (critically) endangered, near threatened, or vulnerable.</v>
       </c>
-      <c r="BV2" t="str">
+      <c r="BX2" t="str">
         <v>Fish are second only to invertebrates in terms of the number of species vulnerable to extinction</v>
       </c>
-      <c r="BW2" t="str">
+      <c r="BY2" t="str">
         <v>The future for European rivers</v>
       </c>
-      <c r="BX2" t="str">
+      <c r="BZ2" t="str">
         <v>While many other factors contribute to changing landscapes and declining freshwater populations, a river system where connectivity is compromised is surely exacerbating such trends. It is not only the environment and wildlife that are suffering the consequences of the absence of river connectivity. Humans too are already bearing the cost. Is there hope for things to change in Europe, hosting one of the most fragmented and compromised river networks in the world?</v>
       </c>
-      <c r="BY2" t="str">
+      <c r="CA2" t="str">
         <v>A particular source of concern is the development of new hydropower dams. In the search for renewable energy sources, hydropower is often valued as a solid option.&lt;a href="https://wwfeu.awsassets.panda.org/downloads/hydropower_pressure_on_european_rivers_the_story_in_numbers_web.pdf"&gt; A 2019 study by WWF &lt;/a&gt;found that there are at least 8,785 new dams either planned or already under construction in Europe, which would add to the 21, 387 existing ones.</v>
       </c>
-      <c r="BZ2" t="str">
+      <c r="CB2" t="str">
         <v xml:space="preserve"> And these new barriers are likely going to be even more impactful than those already in place.</v>
       </c>
-      <c r="CA2" t="str">
+      <c r="CC2" t="str">
         <v>Dam Removal</v>
       </c>
-      <c r="CB2" t="str">
+      <c r="CD2" t="str">
         <v xml:space="preserve"> A significant number of the man-made obstacles that have hindered river connectivity in Europe could be removed, as they are no longer useful, and in some cases the reconnected reaches can bring back migratory fish.</v>
       </c>
-      <c r="CC2" t="str">
+      <c r="CE2" t="str">
         <v>Small and obsolete barriers in particular cause significant harm while providing little benefits - or even representing an economic burden in maintenance costs and safety risks.</v>
       </c>
-      <c r="CD2" t="str">
+      <c r="CF2" t="str">
         <v>It is on this basis that movements all over the world are organizing to restore global free-flowing rivers by removing the infrastructure that inhibits their free flows. In Europe, Dam Removal Europe has &lt;a href="https://damremoval.eu/about/" target="_blank"&gt;documented&lt;/a&gt; the removal of at least 4,984 longitudinal barriers, and the &lt;a href="https://restorerivers.eu/wiki/index.php?title=Main_Page" target="_blank"&gt;RiverWiki: Restoring Europe’s rivers&lt;/a&gt; has collected over 1,400 case studies. These case studies portray the complexity of what river restoration can mean in different contexts: not only the demolition of obsolete dams and longitudinal barriers, but also the dismantling of riverbank protections to allow lateral movements, and the mitigation of the impacts, for example through sediment reinjection, when removal is not possible.</v>
       </c>
-      <c r="CE2" t="str">
+      <c r="CG2" t="str">
         <v>These numbers capture only a fraction of the overall removed barriers, but there are likely more. Yet, even a small number of strategic  removals can have a significant positive impact: the Open Rivers Programme, for example, &lt;a href="https://openrivers.eu/open-rivers-programme-supports-19-new-dam-removal-projects-opening-up-386-km-of-river/" target="_blank"&gt;claims&lt;/a&gt; that by removing just 19 specific dams the programme-supported projects will free 386 km of rivers.</v>
       </c>
-      <c r="CF2" t="str">
+      <c r="CH2" t="str">
         <v>Restored reach of the river Drac (France). Credits: Bruno Boz</v>
       </c>
-      <c r="CG2" t="str">
+      <c r="CI2" t="str">
         <v>Associations and grassroots movements for the restoration of rivers might finally have found strong institutional support for their actions, with the European Commission presenting the proposal for a &lt;a href="https://ec.europa.eu/commission/presscorner/detail/en/ip_22_3746" target="_blank"&gt;"Nature Restoration Law"&lt;/a&gt; in June 2022.</v>
       </c>
-      <c r="CH2" t="str">
+      <c r="CJ2" t="str">
         <v xml:space="preserve"> If approved, the legislation would bind EU Member States to restore rivers and wetlands, along with other natural habitats experiencing degradation and biodiversity loss. In particular, the Nature Restoration Law requires an inventory of barriers and plans for removals, with an ambition for the restoration of at least 25,000 km of free-flowing rivers by 2030.</v>
       </c>
-      <c r="CI2" t="str">
+      <c r="CK2" t="str">
         <v>The existing experiences of barrier removals and the potential support of the EU legislation show that restoring rivers is not only possible, but can be spectacularly impactful for humans, biodiversity, and landscapes.</v>
       </c>
-      <c r="CJ2" t="str">
+      <c r="CL2" t="str">
         <v>The strategic removal of existing obstacles, the mitigation of the impacts of those that cannot be removed, together with the conservation of existing free-flowing river reaches, and a critical assessment of future hydropower dam developments, are much-needed actions to counter the loss of river connectivity in Europe.</v>
       </c>
-      <c r="CK2" t="str">
+      <c r="CM2" t="str">
         <v>Bank protection removal in the river Sangro (Italy). Credits: Andrea Goltara</v>
       </c>
-      <c r="CL2" t="str">
+      <c r="CN2" t="str">
         <v>Of the existing dams mapped by the study, 90% of them have an installed power of fewer than 10 megawatts.</v>
       </c>
-      <c r="CM2" t="str">
+      <c r="CO2" t="str">
         <v>93% of future European dams are classified as small, a ratio that is even higher than that of existing ones. Although they usually pose fewer problems to sediment transport, in some aspects, small hydropower schemes are more damaging than larger ones. They fragment river connectivity like larger dams while providing only a small contribution to energy demands. As most of them do not offer any storage and regulation capacity, they are strategically less valuable. Additionally, in most countries room for further hydropower is virtually exhausted, so they are built in increasingly smaller rivers and remote areas, often affecting the last stretches of well-preserved and still free-flowing rivers.</v>
       </c>
-      <c r="CN2" t="str">
+      <c r="CP2" t="str">
         <v>Although small hydropower plants usually pose fewer problems to sediment transport, in some aspects, they fragment river connectivity like larger dams while providing only a small contribution to energy demands. Moreover, they are built in increasingly smaller rivers and remote areas, often affecting the last stretches of well-preserved and still free-flowing rivers.</v>
       </c>
-      <c r="CO2" t="str">
+      <c r="CQ2" t="str">
         <v>According to the study, at least 18% of the existing European hydropower plants are in protected areas, like National Parks, World Heritage sites, Emerald areas for Eastern Europe, and others.</v>
       </c>
-      <c r="CP2" t="str">
+      <c r="CR2" t="str">
         <v xml:space="preserve">It is a paradox: future European hydropower dams, while being developed for the production of green energy, will in fact be placed inside protected areas in 28% of the cases, destroying invaluable habitats. </v>
       </c>
-      <c r="CQ2" t="str">
+      <c r="CS2" t="str">
         <v>This risk is well demonstrated by the situation in the Balkans, Eastern Mediterranean and Turkey, an area that currently hosts 20% of the existing European hydropower dams.</v>
       </c>
-      <c r="CR2" t="str">
+      <c r="CT2" t="str">
         <v>The area is expected to host almost 50% of the total future hydropower dams in Europe.</v>
       </c>
-      <c r="CS2" t="str">
+      <c r="CU2" t="str">
         <v>And 9 out of 10 of these planned or in construction hydropower dams in the region are small, thus providing little energy while still greatly impacting the ecosystem.</v>
       </c>
-      <c r="CT2" t="str">
+      <c r="CV2" t="str">
         <v>Barriers glossary</v>
       </c>
-      <c r="CU2" t="str">
+      <c r="CW2" t="str">
         <v>dam</v>
-      </c>
-      <c r="CV2" t="str">
-        <v>.....</v>
-      </c>
-      <c r="CW2" t="str">
-        <v>ramp</v>
       </c>
       <c r="CX2" t="str">
         <v>.....</v>
       </c>
       <c r="CY2" t="str">
-        <v>sluice</v>
+        <v>ramp</v>
       </c>
       <c r="CZ2" t="str">
         <v>.....</v>
       </c>
       <c r="DA2" t="str">
-        <v>weir</v>
+        <v>sluice</v>
       </c>
       <c r="DB2" t="str">
         <v>.....</v>
       </c>
       <c r="DC2" t="str">
-        <v>culvert</v>
+        <v>weir</v>
       </c>
       <c r="DD2" t="str">
         <v>.....</v>
       </c>
       <c r="DE2" t="str">
+        <v>culvert</v>
+      </c>
+      <c r="DF2" t="str">
+        <v>.....</v>
+      </c>
+      <c r="DG2" t="str">
         <v>Credits:</v>
       </c>
-      <c r="DF2" t="str">
+      <c r="DH2" t="str">
         <v>Project financed by:</v>
       </c>
-      <c r="DG2" t="str">
+      <c r="DI2" t="str">
         <v>CIRF, Wetlands International Europe,LIFE Programme</v>
       </c>
-      <c r="DH2" t="str">
+      <c r="DJ2" t="str">
         <v>Scientific supervision:</v>
       </c>
-      <c r="DI2" t="str">
+      <c r="DK2" t="str">
         <v>Andrea Goltara (CIRF), Paul Brotherton (Wetlands International Europe)</v>
       </c>
-      <c r="DJ2" t="str">
+      <c r="DL2" t="str">
         <v>Science Communication:</v>
       </c>
-      <c r="DK2" t="str">
+      <c r="DM2" t="str">
         <v>Erica Villa</v>
       </c>
-      <c r="DL2" t="str">
+      <c r="DN2" t="str">
         <v>Data, visualizations, and content:</v>
       </c>
-      <c r="DM2" t="str">
+      <c r="DO2" t="str">
         <v>Alice Corona</v>
       </c>
-      <c r="DN2" t="str">
+      <c r="DP2" t="str">
         <v>Website design and development:</v>
       </c>
-      <c r="DO2" t="str">
+      <c r="DQ2" t="str">
         <v>Lorenzo Brutti</v>
       </c>
-      <c r="DP2" t="str">
+      <c r="DR2" t="str">
         <v>Contacts:</v>
       </c>
-      <c r="DQ2" t="str">
+      <c r="DS2" t="str">
         <v>&lt;a target="_blank" href="https://www.cirf.org/it/home/"&gt;CIRF - Centro Italiano per la Riqualificazione Fluviale&lt;/a&gt; is the reference not-for-profit organisation in Italy on river restoration, linking research with practice and advocating for more sustainable river management at national and European levels</v>
       </c>
-      <c r="DR2" t="str">
+      <c r="DT2" t="str">
         <v>&lt;a target="_blank" href="https://europe.wetlands.org/"&gt;Wetlands International Europe&lt;/a&gt;is an independent, not-for-profit organization with 10 members from 6 European countries, working to raise awareness about wetland ecosystems and to advocate the sustainable use of wetlands for people and nature, in particular by linking science, policy and practice. Wetlands are the source of water that supports all forms of life</v>
       </c>
-      <c r="DS2" t="str">
+      <c r="DU2" t="str">
         <v>Data sources:</v>
       </c>
-      <c r="DT2" t="str">
+      <c r="DV2" t="str">
         <v>barriers</v>
+      </c>
+      <c r="DW2" t="str">
+        <v>Copyright © CIRF - 2022</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:DU4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:DX4"/>
   </ignoredErrors>
 </worksheet>
 </file>